--- a/Module2Homework-JULY/JulyComplementsHW.xlsx
+++ b/Module2Homework-JULY/JulyComplementsHW.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferryto\Documents\GitHub\DAT222x\Module2Homework-JULY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Homework 2_2</t>
   </si>
@@ -45,12 +45,24 @@
   </si>
   <si>
     <t>total is between 3 and 17 inclusive?</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>FFF</t>
+  </si>
+  <si>
+    <t>MFF</t>
+  </si>
+  <si>
+    <t>FMM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,48 +373,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:I15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <f>6^3</f>
+        <v>216</v>
+      </c>
+      <c r="I5">
+        <f>1-(1/216)</f>
+        <v>0.99537037037037035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
